--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\depTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05897CF0-9C77-478E-BA1E-E15D581092FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DC6537-EC5A-4819-9DFD-6F713BAFBEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="176">
   <si>
     <r>
       <t>Tabel: sftp_config</t>
@@ -633,6 +636,383 @@
   </si>
   <si>
     <t>Pesan error jika gagal</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabel: approval_requests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Permintaan Persetujuan)</t>
+    </r>
+  </si>
+  <si>
+    <t>request_id</t>
+  </si>
+  <si>
+    <t>ID unik untuk setiap permintaan approval</t>
+  </si>
+  <si>
+    <t>module_name</t>
+  </si>
+  <si>
+    <t>Nama modul atau tabel yang dimodifikasi</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>ID data yang dimodifikasi (misalnya ID customer, ID transaksi)</t>
+  </si>
+  <si>
+    <t>request_type</t>
+  </si>
+  <si>
+    <t>ENUM('Insert', 'Update', 'Delete')</t>
+  </si>
+  <si>
+    <t>Jenis perubahan data</t>
+  </si>
+  <si>
+    <t>request_data</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Data baru atau perubahan yang diminta</t>
+  </si>
+  <si>
+    <t>old_data</t>
+  </si>
+  <si>
+    <t>Data lama sebelum perubahan (jika Update/Delete)</t>
+  </si>
+  <si>
+    <t>requested_by</t>
+  </si>
+  <si>
+    <t>ID user yang mengajukan permintaan</t>
+  </si>
+  <si>
+    <t>requested_at</t>
+  </si>
+  <si>
+    <t>Waktu pengajuan permintaan</t>
+  </si>
+  <si>
+    <t>ENUM('Pending', 'Approved', 'Rejected')</t>
+  </si>
+  <si>
+    <t>Status approval</t>
+  </si>
+  <si>
+    <t>approved_by</t>
+  </si>
+  <si>
+    <t>ID user yang menyetujui (NULL jika belum diproses)</t>
+  </si>
+  <si>
+    <t>approved_at</t>
+  </si>
+  <si>
+    <t>TIMESTAMP NULL</t>
+  </si>
+  <si>
+    <t>Waktu approval (NULL jika belum disetujui)</t>
+  </si>
+  <si>
+    <t>rejection_reason</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alasan penolakan jika status </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rejected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tabel: approval_logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Log Aktivitas Approval)</t>
+    </r>
+  </si>
+  <si>
+    <t>ID unik log</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID dari </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>approval_requests</t>
+    </r>
+  </si>
+  <si>
+    <t>action_by</t>
+  </si>
+  <si>
+    <t>ID user yang melakukan aksi</t>
+  </si>
+  <si>
+    <t>action_type</t>
+  </si>
+  <si>
+    <t>ENUM('Requested', 'Approved', 'Rejected', 'Commented')</t>
+  </si>
+  <si>
+    <t>Jenis aksi</t>
+  </si>
+  <si>
+    <t>action_note</t>
+  </si>
+  <si>
+    <t>Catatan tambahan untuk approval/rejection/comment</t>
+  </si>
+  <si>
+    <t>action_at</t>
+  </si>
+  <si>
+    <t>Waktu aksi dilakukan</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabel: file_services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Layanan Upload File)</t>
+    </r>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>ID unik untuk setiap file</t>
+  </si>
+  <si>
+    <t>Nama asli file</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>Lokasi penyimpanan file dalam sistem</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>Jenis file (misalnya: pdf, csv, xlsx, json)</t>
+  </si>
+  <si>
+    <t>upload_by</t>
+  </si>
+  <si>
+    <t>ID user yang mengunggah file</t>
+  </si>
+  <si>
+    <t>upload_at</t>
+  </si>
+  <si>
+    <t>Waktu file diunggah</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>ENUM('Inbound', 'Outbound')</t>
+  </si>
+  <si>
+    <r>
+      <t>Arah file (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Inbound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = masuk ke sistem, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Outbound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = keluar dari sistem)</t>
+    </r>
+  </si>
+  <si>
+    <t>process_status</t>
+  </si>
+  <si>
+    <t>ENUM('Pending', 'Processing', 'Completed', 'Failed')</t>
+  </si>
+  <si>
+    <t>Status pemrosesan file</t>
+  </si>
+  <si>
+    <t>process_message</t>
+  </si>
+  <si>
+    <t>Pesan error jika proses gagal</t>
+  </si>
+  <si>
+    <t>processed_at</t>
+  </si>
+  <si>
+    <t>Waktu terakhir file diproses</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Tabel: file_processing_logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Log Aktivitas Pemrosesan File)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID dari </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>file_services</t>
+    </r>
+  </si>
+  <si>
+    <t>ENUM('Uploaded', 'Validated', 'Transformed', 'Sent', 'Failed')</t>
+  </si>
+  <si>
+    <t>ID user atau sistem yang melakukan aksi</t>
+  </si>
+  <si>
+    <t>Catatan tambahan (misalnya error message atau deskripsi sukses)</t>
+  </si>
+  <si>
+    <r>
+      <t>3. Tabel: file_destinations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Konfigurasi Destinasi File Outbound)</t>
+    </r>
+  </si>
+  <si>
+    <t>destination_id</t>
+  </si>
+  <si>
+    <t>ID unik destinasi</t>
+  </si>
+  <si>
+    <t>destination_type</t>
+  </si>
+  <si>
+    <t>ENUM('SFTP', 'API', 'Email', 'Local')</t>
+  </si>
+  <si>
+    <t>Jenis destinasi</t>
+  </si>
+  <si>
+    <t>destination_path</t>
+  </si>
+  <si>
+    <t>Alamat tujuan (misal: URL API, folder lokal, atau alamat email)</t>
+  </si>
+  <si>
+    <t>sent_at</t>
+  </si>
+  <si>
+    <t>Waktu file dikirim</t>
+  </si>
+  <si>
+    <t>send_status</t>
+  </si>
+  <si>
+    <t>ENUM('Pending', 'Sent', 'Failed')</t>
+  </si>
+  <si>
+    <t>Status pengiriman file</t>
+  </si>
+  <si>
+    <t>Pesan error jika pengiriman gagal</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE5796-4B66-4D8E-853F-859B6C28F508}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1644,4 +2024,642 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F368D369-0720-4A0E-84FC-8333BA7CF80C}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="71.25">
+      <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="85.5">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="128.25">
+      <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="71.25">
+      <c r="A8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="85.5">
+      <c r="A9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85.5">
+      <c r="A10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="85.5">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="71.25">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="85.5">
+      <c r="A13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="71.25">
+      <c r="A14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57">
+      <c r="A15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF79C79-CA37-4CC3-B44C-A8A857B1EA0E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.75">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57">
+      <c r="A7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="99.75">
+      <c r="A8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="85.5">
+      <c r="A9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85.5">
+      <c r="A10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F85B504-96FA-4433-B601-72E7EAB6B56B}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="28.5">
+      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="57">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="57">
+      <c r="A5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="57">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="114">
+      <c r="A7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="85.5">
+      <c r="A8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="114">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="85.5">
+      <c r="A10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="85.5">
+      <c r="A11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="114">
+      <c r="A12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="99.75">
+      <c r="A13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="57">
+      <c r="A14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="57">
+      <c r="A15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>